--- a/biology/Zoologie/Afghanodon_mustersi/Afghanodon_mustersi.xlsx
+++ b/biology/Zoologie/Afghanodon_mustersi/Afghanodon_mustersi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afghanodon mustersi, unique représentant du genre Afghanodon, est une espèce d'urodèles de la famille des Hynobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afghanodon mustersi, unique représentant du genre Afghanodon, est une espèce d'urodèles de la famille des Hynobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce endémique d'Afghanistan. Elle se rencontre de 2 750 à 3 050 m d'altitude dans la province de Kaboul[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce endémique d'Afghanistan. Elle se rencontre de 2 750 à 3 050 m d'altitude dans la province de Kaboul.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dubois &amp; Raffaëlli, 2012 : A new ergotaxonomy of the order Urodela Duméril, 1805 (Amphibia, Batrachia). Alytes, vol. 28, no 3/4, p. 77–161.
 Smith, 1940 : Contributions to the herpetology of Afghanistan. Annals and Magazine of Natural History, sér. 11, vol. 5, p. 382-384.</t>
